--- a/temp_submit/IXI_test_brain_age_submission_소융과_2020105695_김희성_6_15.xlsx
+++ b/temp_submit/IXI_test_brain_age_submission_소융과_2020105695_김희성_6_15.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>45.505770247652499</v>
+        <v>44.502796153293403</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>45.989637235460698</v>
+        <v>43.249136385309498</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>69.892122176730894</v>
+        <v>70.534044117337501</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>57.363173938699298</v>
+        <v>60.297884429135898</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -718,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>29.885687463836799</v>
+        <v>28.947498609165201</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>44.192673285001497</v>
+        <v>44.237399945344201</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>32.483196409845497</v>
+        <v>22.861358549721501</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>29.360695069649498</v>
+        <v>26.8642004286618</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -750,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>27.569668173261501</v>
+        <v>28.852769194930602</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -758,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>34.192200784066998</v>
+        <v>37.397060158650703</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>62.597876476519403</v>
+        <v>63.678600313806498</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -774,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>38.142508458786097</v>
+        <v>38.274834169408102</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -782,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>37.163812054061502</v>
+        <v>35.709057825661397</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -790,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>29.4281675460795</v>
+        <v>35.252331416839802</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>60.841038027975898</v>
+        <v>61.146731303258001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -806,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>42.666354944396097</v>
+        <v>41.902563974668404</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -814,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>57.978123294477498</v>
+        <v>60.215272054777401</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>49.172874021296302</v>
+        <v>48.670139556712897</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>44.812443854591798</v>
+        <v>43.892403192284398</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -838,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>31.851760446906098</v>
+        <v>30.68428214727</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -846,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>40.892275093465997</v>
+        <v>38.733829335074297</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -854,7 +854,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>24.049686451523598</v>
+        <v>17.805307035613101</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -862,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>57.771751630495302</v>
+        <v>53.034941997960601</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>66.525061292327294</v>
+        <v>71.926019045827104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -878,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>37.710172352693696</v>
+        <v>33.005291999113702</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -886,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>46.665441083582103</v>
+        <v>56.371913836741797</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -894,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>60.570122931068397</v>
+        <v>61.4345337477247</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -902,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>36.552986511954998</v>
+        <v>34.5678347668199</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>23.218918133614899</v>
+        <v>26.782958586321499</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -918,7 +918,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>42.599857132138602</v>
+        <v>38.045568769629398</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -926,7 +926,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>37.707881298930502</v>
+        <v>34.309749164141799</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -934,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>52.892431835685997</v>
+        <v>54.241569399891198</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -942,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>72.466516964356998</v>
+        <v>78.062048429391297</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -950,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>43.037066948496097</v>
+        <v>36.055116897033102</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -958,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>45.317055939521602</v>
+        <v>51.964787928920998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -966,7 +966,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>82.389001721284799</v>
+        <v>78.694055609234297</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -974,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>30.314149102275699</v>
+        <v>30.922507672522698</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>52.948460355421197</v>
+        <v>53.725952956756799</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -990,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>31.005535618238198</v>
+        <v>41.172747004091001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -998,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>33.517985601183703</v>
+        <v>31.9800019324136</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1006,7 +1006,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>59.605140436074997</v>
+        <v>60.893930916923402</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -1014,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>60.5948726741454</v>
+        <v>62.390872779190602</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -1022,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>66.970887872858299</v>
+        <v>59.874038541608897</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
@@ -1030,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>64.652248105082904</v>
+        <v>64.041462729193796</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -1038,7 +1038,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>45.119144971248701</v>
+        <v>44.624839745250902</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -1046,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>59.1919972336675</v>
+        <v>60.9951620238148</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -1054,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>54.038142839325999</v>
+        <v>47.8225942070098</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
@@ -1062,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>48.984463855858401</v>
+        <v>49.832205265994702</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -1070,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>41.6884835932984</v>
+        <v>42.0550146897126</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -1078,7 +1078,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>50.6880122830799</v>
+        <v>51.438039927463699</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
@@ -1086,7 +1086,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>45.003388997978</v>
+        <v>43.995081399319503</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -1094,7 +1094,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>31.9451611820223</v>
+        <v>34.409583919236702</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
@@ -1102,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>55.200752593278096</v>
+        <v>54.888818347245603</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
@@ -1110,7 +1110,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>59.721806261174301</v>
+        <v>57.629854370446701</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>47.455866023382598</v>
+        <v>44.258741955534902</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
@@ -1126,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>38.173475209929599</v>
+        <v>34.101684129671</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -1134,7 +1134,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>34.104872066091801</v>
+        <v>34.482167408219098</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -1142,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>59.169148674597501</v>
+        <v>59.696251658700596</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>47.453703397192399</v>
+        <v>47.873132184310599</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
@@ -1158,7 +1158,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>46.010068908957898</v>
+        <v>43.715127086233402</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -1166,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>51.599794763846802</v>
+        <v>53.959985762769598</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
@@ -1174,7 +1174,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>57.063532873191399</v>
+        <v>55.359635911708899</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -1182,7 +1182,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>55.603810106053601</v>
+        <v>60.589206081275698</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
@@ -1190,7 +1190,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>56.936985719208003</v>
+        <v>60.9839408479017</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
@@ -1198,7 +1198,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>61.774651580160302</v>
+        <v>60.798889304574097</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -1206,7 +1206,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>68.157992102515195</v>
+        <v>72.7824200141971</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -1214,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>71.710555650111104</v>
+        <v>68.359729955379393</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
@@ -1222,7 +1222,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>58.1787264873835</v>
+        <v>62.429579555569902</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
@@ -1230,7 +1230,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>42.629168306686502</v>
+        <v>31.501989231636099</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
@@ -1238,7 +1238,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>68.755118703662802</v>
+        <v>68.050907676778095</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
@@ -1246,7 +1246,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>42.056467744727001</v>
+        <v>41.367795209537199</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
@@ -1254,7 +1254,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>76.212547987678903</v>
+        <v>72.304010441793395</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -1262,7 +1262,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>40.924367345764999</v>
+        <v>34.038401742966698</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
@@ -1270,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>62.227571751280699</v>
+        <v>62.215863974918797</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -1278,7 +1278,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>44.930669928042697</v>
+        <v>51.551479755282102</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -1286,7 +1286,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>41.461928393978297</v>
+        <v>38.562249532204802</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>61.627383943447001</v>
+        <v>64.0528285786</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
@@ -1302,7 +1302,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>81.820738129174401</v>
+        <v>77.947837237945393</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -1310,7 +1310,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>43.293677203484698</v>
+        <v>39.556963664379701</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -1318,7 +1318,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>77.010205497249601</v>
+        <v>74.702294608375297</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
@@ -1326,7 +1326,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>74.767294446567107</v>
+        <v>70.587764463974494</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -1334,7 +1334,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>62.1171711026089</v>
+        <v>59.656884795798199</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>59.160778053267002</v>
+        <v>57.0152469251261</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
@@ -1350,7 +1350,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>44.0870081295799</v>
+        <v>51.269466875791203</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -1358,7 +1358,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>72.658526797138293</v>
+        <v>71.984129879353603</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -1366,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>45.0224131124656</v>
+        <v>43.076026957197797</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
@@ -1374,7 +1374,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>31.535959384395198</v>
+        <v>37.556912414350201</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
@@ -1382,7 +1382,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>57.254168416543102</v>
+        <v>55.7041120253446</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -1390,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>23.604918988605998</v>
+        <v>20.943085863621899</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -1398,7 +1398,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>41.795337400026902</v>
+        <v>36.579051167564202</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -1406,7 +1406,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>43.371239354744397</v>
+        <v>40.840958274285597</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>29.081589428514199</v>
+        <v>34.602965234672503</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
@@ -1422,7 +1422,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>54.569307999472002</v>
+        <v>53.8435450650815</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -1430,7 +1430,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>42.162733333347703</v>
+        <v>40.892901075632899</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
@@ -1438,7 +1438,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>42.461213714030002</v>
+        <v>42.357796406351298</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
@@ -1446,7 +1446,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>71.708667004967396</v>
+        <v>60.7971331625658</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -1454,7 +1454,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>44.094868598941197</v>
+        <v>43.481933475517202</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
@@ -1462,7 +1462,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>43.834781178938698</v>
+        <v>45.0168399689098</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
@@ -1470,7 +1470,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>53.234810328726503</v>
+        <v>62.480868392241703</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
@@ -1478,7 +1478,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>38.177880334577999</v>
+        <v>42.337182198276302</v>
       </c>
     </row>
   </sheetData>
